--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="368">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T18:15:07+00:00</t>
+    <t>2022-10-23T19:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -649,7 +649,7 @@
     <t>RegulatedAuthorization.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicinalProductDefinition|BiologicallyDerivedProduct|NutritionProduct|PackagedProductDefinition|ManufacturedItemDefinition|Ingredient|SubstanceDefinition|DeviceDefinition|ResearchStudy|ActivityDefinition|PlanDefinition|ObservationDefinition|Practitioner|Organization|Location)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition)
 </t>
   </si>
   <si>
@@ -1010,6 +1010,10 @@
   </si>
   <si>
     <t>RegulatedAuthorization.holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLOrganization)
+</t>
   </si>
   <si>
     <t>The organization that has been granted this authorization, by the regulator</t>
@@ -7018,13 +7022,13 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>198</v>
+        <v>322</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7090,7 +7094,7 @@
         <v>94</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>73</v>
@@ -7101,7 +7105,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7127,10 +7131,10 @@
         <v>198</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7181,7 +7185,7 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7196,7 +7200,7 @@
         <v>94</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>73</v>
@@ -7207,7 +7211,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7230,13 +7234,13 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7287,7 +7291,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7313,7 +7317,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7336,13 +7340,13 @@
         <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7393,7 +7397,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7408,7 +7412,7 @@
         <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>73</v>
@@ -7419,7 +7423,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7525,7 +7529,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7633,11 +7637,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7659,10 +7663,10 @@
         <v>128</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>131</v>
@@ -7717,7 +7721,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -7743,7 +7747,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7769,10 +7773,10 @@
         <v>140</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7823,7 +7827,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -7838,7 +7842,7 @@
         <v>94</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>73</v>
@@ -7849,7 +7853,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7875,10 +7879,10 @@
         <v>166</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7908,10 +7912,10 @@
         <v>213</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>73</v>
@@ -7929,7 +7933,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -7944,7 +7948,7 @@
         <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>73</v>
@@ -7955,7 +7959,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7981,10 +7985,10 @@
         <v>166</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8035,7 +8039,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8061,7 +8065,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8084,13 +8088,13 @@
         <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8141,7 +8145,7 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8156,7 +8160,7 @@
         <v>94</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>73</v>
@@ -8167,7 +8171,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8193,10 +8197,10 @@
         <v>73</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8247,7 +8251,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8262,7 +8266,7 @@
         <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>73</v>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:27:30+00:00</t>
+    <t>2022-10-23T19:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:35:12+00:00</t>
+    <t>2022-10-23T20:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T20:13:34+00:00</t>
+    <t>2022-10-25T12:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:14:01+00:00</t>
+    <t>2022-10-25T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:47:24+00:00</t>
+    <t>2022-10-30T17:01:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T17:01:43+00:00</t>
+    <t>2022-10-30T18:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T18:15:34+00:00</t>
+    <t>2022-10-30T20:04:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T20:04:00+00:00</t>
+    <t>2022-10-30T21:50:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T21:50:47+00:00</t>
+    <t>2022-10-30T22:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:04:36+00:00</t>
+    <t>2022-10-30T22:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:13:17+00:00</t>
+    <t>2022-11-02T06:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T06:16:24+00:00</t>
+    <t>2022-11-02T20:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T20:48:31+00:00</t>
+    <t>2022-11-03T14:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T14:07:58+00:00</t>
+    <t>2022-11-05T15:30:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:30:00+00:00</t>
+    <t>2022-11-05T15:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="369">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:35:25+00:00</t>
+    <t>2022-11-06T17:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -455,7 +455,7 @@
     <t>Marketing authorisation number</t>
   </si>
   <si>
-    <t>Business identifier for the authorization, typically assigned by the authorizing body.</t>
+    <t>EMA IG 2.2</t>
   </si>
   <si>
     <t>Marketing Authorisation.Marketing Authorisation Number</t>
@@ -763,7 +763,7 @@
     <t>Identity of the terminology system</t>
   </si>
   <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+    <t>EMA IG 2.3</t>
   </si>
   <si>
     <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
@@ -887,7 +887,7 @@
     <t>Marketing authorisation status</t>
   </si>
   <si>
-    <t>The status that is authorised e.g. approved. Intermediate states and actions can be tracked with cases and applications.</t>
+    <t>EMA IG 2.4</t>
   </si>
   <si>
     <t>The lifecycle status of an artifact.</t>
@@ -915,6 +915,9 @@
   </si>
   <si>
     <t>RegulatedAuthorization.status.coding.system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
     <t>https://spor.ema.europa.eu/rmswi/#/lists/100000072049/terms</t>
@@ -945,7 +948,7 @@
     <t>Issue/changing date of the marketing authorisation</t>
   </si>
   <si>
-    <t>The date at which the current status was assigned.</t>
+    <t>EMA IG 2.5</t>
   </si>
   <si>
     <t>Marketing Authorisation.Authorisation Status Date</t>
@@ -1019,7 +1022,7 @@
     <t>The organization that has been granted this authorization, by the regulator</t>
   </si>
   <si>
-    <t>The organization that has been granted this authorization, by some authoritative body (the 'regulator').</t>
+    <t>EMA IG 2.8</t>
   </si>
   <si>
     <t>Marketing Authorisation.Marketing Authorisation Holder (Organisation)</t>
@@ -5844,7 +5847,7 @@
         <v>239</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>241</v>
@@ -5860,7 +5863,7 @@
         <v>73</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>73</v>
@@ -5925,7 +5928,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6033,7 +6036,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6141,7 +6144,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6249,7 +6252,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6359,7 +6362,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6469,7 +6472,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6492,13 +6495,13 @@
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6549,7 +6552,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -6564,7 +6567,7 @@
         <v>94</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>73</v>
@@ -6575,7 +6578,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6601,10 +6604,10 @@
         <v>192</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6655,7 +6658,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -6670,7 +6673,7 @@
         <v>94</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>73</v>
@@ -6681,7 +6684,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6704,13 +6707,13 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6761,7 +6764,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -6787,7 +6790,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6813,10 +6816,10 @@
         <v>166</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6846,10 +6849,10 @@
         <v>106</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>73</v>
@@ -6867,7 +6870,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -6893,7 +6896,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6919,10 +6922,10 @@
         <v>166</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6952,10 +6955,10 @@
         <v>213</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>73</v>
@@ -6973,7 +6976,7 @@
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -6988,7 +6991,7 @@
         <v>94</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>73</v>
@@ -6999,7 +7002,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7022,13 +7025,13 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7079,7 +7082,7 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -7094,7 +7097,7 @@
         <v>94</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>73</v>
@@ -7105,7 +7108,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7131,10 +7134,10 @@
         <v>198</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7185,7 +7188,7 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7200,7 +7203,7 @@
         <v>94</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>73</v>
@@ -7211,7 +7214,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7234,13 +7237,13 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7291,7 +7294,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7317,7 +7320,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7340,13 +7343,13 @@
         <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7397,7 +7400,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7412,7 +7415,7 @@
         <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>73</v>
@@ -7423,7 +7426,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7529,7 +7532,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7637,11 +7640,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7663,10 +7666,10 @@
         <v>128</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>131</v>
@@ -7721,7 +7724,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -7747,7 +7750,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7773,10 +7776,10 @@
         <v>140</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7827,7 +7830,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -7842,7 +7845,7 @@
         <v>94</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>73</v>
@@ -7853,7 +7856,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7879,10 +7882,10 @@
         <v>166</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7912,10 +7915,10 @@
         <v>213</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>73</v>
@@ -7933,7 +7936,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -7948,7 +7951,7 @@
         <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>73</v>
@@ -7959,7 +7962,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7985,10 +7988,10 @@
         <v>166</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8039,7 +8042,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8065,7 +8068,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8088,13 +8091,13 @@
         <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8145,7 +8148,7 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8160,7 +8163,7 @@
         <v>94</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>73</v>
@@ -8171,7 +8174,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8197,10 +8200,10 @@
         <v>73</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8251,7 +8254,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8266,7 +8269,7 @@
         <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>73</v>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T17:03:22+00:00</t>
+    <t>2022-11-06T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -673,7 +673,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://spor.ema.europa.eu/rmswi/#/lists/220000000060/terms"/&gt;
+    &lt;system value="http://spor.ema.europa.eu/v1/lists/220000000060"/&gt;
     &lt;code value="220000000061"/&gt;
     &lt;display value="Marketing Authorisation"/&gt;
   &lt;/coding&gt;
@@ -772,7 +772,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000000002/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/100000000002</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -920,7 +920,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000072049/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/100000072049</t>
   </si>
   <si>
     <t>RegulatedAuthorization.status.coding.version</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T21:19:48+00:00</t>
+    <t>2022-11-06T22:26:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T22:26:11+00:00</t>
+    <t>2022-11-07T21:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:05:10+00:00</t>
+    <t>2022-11-07T21:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:23:46+00:00</t>
+    <t>2022-11-07T21:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:31:45+00:00</t>
+    <t>2022-11-08T20:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLRegulatedAuthorization</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLRegulatedAuthorization</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-08T20:50:12+00:00</t>
+    <t>2022-11-11T15:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -649,7 +649,7 @@
     <t>RegulatedAuthorization.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLPackagedProductDefinition)
 </t>
   </si>
   <si>
@@ -1015,7 +1015,7 @@
     <t>RegulatedAuthorization.holder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLOrganization)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLOrganization)
 </t>
   </si>
   <si>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T15:50:31+00:00</t>
+    <t>2022-11-11T20:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T20:48:35+00:00</t>
+    <t>2022-11-14T19:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:25:53+00:00</t>
+    <t>2022-11-17T17:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
